--- a/data/case1/5/Plm2_5.xlsx
+++ b/data/case1/5/Plm2_5.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.26492962486067029</v>
+        <v>-0.23420996532603056</v>
       </c>
       <c r="B1" s="0">
-        <v>0.26427817684617594</v>
+        <v>0.23371492428795193</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.21816867726400524</v>
+        <v>-0.18760660231405168</v>
       </c>
       <c r="B2" s="0">
-        <v>0.21559046619601396</v>
+        <v>0.18571353667604029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.063497200108987073</v>
+        <v>-0.082769337886027472</v>
       </c>
       <c r="B3" s="0">
-        <v>0.063213281572593871</v>
+        <v>0.082325110598400641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12520800731133974</v>
+        <v>-0.14431760423700268</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12466010066402688</v>
+        <v>0.14355324445096684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.11866010109570091</v>
+        <v>-0.13755324525437018</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11758135996569852</v>
+        <v>0.13602560049804335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.079751238560514803</v>
+        <v>-0.063188142736221309</v>
       </c>
       <c r="B6" s="0">
-        <v>0.079661724339655127</v>
+        <v>0.06312885919851885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.059661724874187527</v>
+        <v>-0.043128860164300065</v>
       </c>
       <c r="B7" s="0">
-        <v>0.059476946295903943</v>
+        <v>0.04302700470288201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.014292122821488285</v>
+        <v>-0.023027005674100209</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.014330733681927832</v>
+        <v>0.02298651174180133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.020330733234267484</v>
+        <v>-0.047323867009231968</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.020389882555998717</v>
+        <v>0.047156676477919213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.026389882110521512</v>
+        <v>0.013856519110838406</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.026404692177841582</v>
+        <v>-0.013856270041010532</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.030904691741856283</v>
+        <v>0.018356269207043141</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.030942609884178296</v>
+        <v>-0.018373926355060632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.011592318318602857</v>
+        <v>-0.045399291701738509</v>
       </c>
       <c r="B12" s="0">
-        <v>0.011577797265817757</v>
+        <v>0.045151957799666409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005577797711987742</v>
+        <v>-0.03915195866118637</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0055769140290804486</v>
+        <v>0.039084901965933838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0064230854859346209</v>
+        <v>-0.027084902889598084</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0064262480707295566</v>
+        <v>0.027052856656778701</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.012426247624685693</v>
+        <v>-0.021052857524884949</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.012436941224438058</v>
+        <v>0.021027665859398859</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026657090190909</v>
+        <v>-0.01502766673009992</v>
       </c>
       <c r="B16" s="0">
-        <v>0.01500417515424779</v>
+        <v>0.015004150292793561</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009004175601382336</v>
+        <v>-0.0090041511670486685</v>
       </c>
       <c r="B17" s="0">
-        <v>0.008999999533026326</v>
+        <v>0.0089999990959492848</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036109500020629071</v>
+        <v>-0.036108322786059688</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096730451415482</v>
+        <v>0.036096323006379549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096730883813258</v>
+        <v>-0.027096323809120193</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013573740790164</v>
+        <v>0.027013237414548641</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.01801357417732774</v>
+        <v>-0.018013238224833472</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004268041785565</v>
+        <v>0.018004247913053106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042684789892746</v>
+        <v>-0.0090042487243744418</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999995622749296</v>
+        <v>0.0089999991880418406</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.14309326653046384</v>
+        <v>-0.093944199608277046</v>
       </c>
       <c r="B22" s="0">
-        <v>0.14225179982713776</v>
+        <v>0.093632759074433025</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084638500162395047</v>
+        <v>-0.084632759899911036</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127594694615837</v>
+        <v>0.084126288165847996</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127595364576109</v>
+        <v>-0.042126289326080979</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999326129078</v>
+        <v>0.041999998833591512</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094918037727463656</v>
+        <v>-0.066837458589272813</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094675046178203104</v>
+        <v>0.066721913548459355</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088675046622949338</v>
+        <v>-0.060721914377907638</v>
       </c>
       <c r="B26" s="0">
-        <v>0.08836126207892292</v>
+        <v>0.060576350039337257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.08236126252643805</v>
+        <v>-0.054576350871679224</v>
       </c>
       <c r="B27" s="0">
-        <v>0.08128564551179096</v>
+        <v>0.054087734977851021</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.07528564596948506</v>
+        <v>-0.048087735821471078</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074540408104435407</v>
+        <v>0.047763883671461116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062540408607903331</v>
+        <v>-0.035763884580763516</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062171146520608289</v>
+        <v>0.035623775383536227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042171147079231197</v>
+        <v>-0.015623776373540732</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019688184152582</v>
+        <v>0.01560439997383245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019688715695267</v>
+        <v>-0.063415048352279513</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000678475255668</v>
+        <v>0.063279579565856281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006790463065229</v>
+        <v>-0.0060005105841902662</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995251764915</v>
+        <v>0.0059999991399246611</v>
       </c>
     </row>
   </sheetData>
